--- a/Practice Matrix Georgia Tech Basketball.xlsx
+++ b/Practice Matrix Georgia Tech Basketball.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c55a44294e1dd70d/Documents/Georgia Tech/Class Vault/2023 .Spring/VIP 3601/gtmbb-sports-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1773CAAB-FA10-4372-9193-126B9221E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1773CAAB-FA10-4372-9193-126B9221E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF5F94E-8BCE-4526-95B3-F535918B8608}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{59BCA302-8C25-4D14-81B0-359E9D45B62A}"/>
+    <workbookView xWindow="6780" yWindow="6000" windowWidth="17280" windowHeight="8964" xr2:uid="{59BCA302-8C25-4D14-81B0-359E9D45B62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Drill Load Baselines" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36567865-FD6C-466D-9849-B6A06E156562}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15959,7 +15959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C5987C-1365-47D5-ADB0-C18FCB082FD5}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
